--- a/analisis/resultados/argentina/insumos_criterio_ccnn.xlsx
+++ b/analisis/resultados/argentina/insumos_criterio_ccnn.xlsx
@@ -4064,7 +4064,7 @@
         <v>243619496.0958</v>
       </c>
       <c r="D85">
-        <v>39566652.3671298</v>
+        <v>66209162.2566298</v>
       </c>
       <c r="E85">
         <v>3320020.6116</v>
@@ -4125,7 +4125,7 @@
         <v>262532037.834</v>
       </c>
       <c r="D86">
-        <v>72848661.85889886</v>
+        <v>88121303.2415846</v>
       </c>
       <c r="E86">
         <v>3321668.5392</v>
@@ -4186,7 +4186,7 @@
         <v>286623720.3984</v>
       </c>
       <c r="D87">
-        <v>118623835.5705348</v>
+        <v>103610629.199821</v>
       </c>
       <c r="E87">
         <v>4349296.0632</v>
@@ -4247,7 +4247,7 @@
         <v>304444925.2284</v>
       </c>
       <c r="D88">
-        <v>122350382.8253784</v>
+        <v>104005003.708477</v>
       </c>
       <c r="E88">
         <v>4193698.9908</v>
@@ -4308,7 +4308,7 @@
         <v>309128920.419</v>
       </c>
       <c r="D89">
-        <v>120668555.2790124</v>
+        <v>107523445.730744</v>
       </c>
       <c r="E89">
         <v>5366834.748</v>
@@ -4369,7 +4369,7 @@
         <v>280944389.517</v>
       </c>
       <c r="D90">
-        <v>89549617.0844461</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>4955978.7222</v>
